--- a/backend/matrix.xlsx
+++ b/backend/matrix.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="28800" windowHeight="12345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="age" sheetId="8" r:id="rId4"/>
     <sheet name="cirr_year" sheetId="10" r:id="rId5"/>
     <sheet name="trans_year" sheetId="11" r:id="rId6"/>
-    <sheet name="Natural History" sheetId="1" r:id="rId7"/>
-    <sheet name="Treatment model" sheetId="2" r:id="rId8"/>
-    <sheet name="Table A" sheetId="3" r:id="rId9"/>
-    <sheet name="Background mortalityTable B" sheetId="4" r:id="rId10"/>
+    <sheet name="Natural History" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="Treatment model" sheetId="2" state="hidden" r:id="rId8"/>
+    <sheet name="Table A" sheetId="3" state="hidden" r:id="rId9"/>
+    <sheet name="Background mortalityTable B" sheetId="4" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="84">
   <si>
     <t>HCC</t>
   </si>
@@ -216,12 +216,6 @@
     <t>Rows (from), Columns (to)</t>
   </si>
   <si>
-    <t>age 1</t>
-  </si>
-  <si>
-    <t>age 2</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -237,12 +231,6 @@
     <t>Male then Female</t>
   </si>
   <si>
-    <t>age 0</t>
-  </si>
-  <si>
-    <t>mort 0</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -252,17 +240,86 @@
     <t>From Liver Transplantation to HBV Death</t>
   </si>
   <si>
-    <t>cirr_year 0</t>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 1</t>
   </si>
   <si>
-    <t>trans_year 0</t>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 2</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 3</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 4</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 5</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 6</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 7</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 8</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 9</t>
+  </si>
+  <si>
+    <t>Liver Transplantation Decompensated Cirrhosis Year 10</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 1</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 2</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 3</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 4</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 5</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 6</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 7</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 8</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 9</t>
+  </si>
+  <si>
+    <t>Liver Transplantation HCC Year 10</t>
+  </si>
+  <si>
+    <t>age 0</t>
+  </si>
+  <si>
+    <t>age 1</t>
+  </si>
+  <si>
+    <t>age 2</t>
+  </si>
+  <si>
+    <t>mort 0</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,12 +360,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -345,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,14 +431,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFB8956-2854-4AF1-8456-FE2920426C86}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,12 +733,12 @@
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="7.875" customWidth="1"/>
     <col min="8" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="22.375" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="10" max="19" width="23.375" customWidth="1"/>
+    <col min="20" max="29" width="22.375" customWidth="1"/>
+    <col min="30" max="30" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
@@ -717,26 +767,82 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AF1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14">
         <v>1.6E-2</v>
@@ -752,29 +858,49 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="14">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M2" s="14">
+      <c r="AE2" s="14">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="AF2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="14">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D3" s="14">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -789,22 +915,2787 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
-      <c r="L3" s="14">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M3" s="14">
+      <c r="AE3" s="14">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="14">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14">
+        <v>0.151</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="AF11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AF14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="AF15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="AF19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="AF20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="AF22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="AF23" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="AF24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AF25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="AF26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="AF27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="AF28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="AF29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <v>9.1E-4</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C2:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="E4">
+        <v>3.8200000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3.01E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.2499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.75E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>1.83E-4</v>
+      </c>
+      <c r="E7">
+        <v>1.5100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.3200000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="E9">
+        <v>1.17E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1.34E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.06E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1.15E-4</v>
+      </c>
+      <c r="E11">
+        <v>9.6000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9.7E-5</v>
+      </c>
+      <c r="E12">
+        <v>8.7999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="E13">
+        <v>8.3999999999999995E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>9.2E-5</v>
+      </c>
+      <c r="E14">
+        <v>8.7000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.02E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>2.13E-4</v>
+      </c>
+      <c r="E16">
+        <v>1.2899999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="E17">
+        <v>1.66E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>4.3899999999999999E-4</v>
+      </c>
+      <c r="E18">
+        <v>2.0699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>5.5199999999999997E-4</v>
+      </c>
+      <c r="E19">
+        <v>2.4699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>6.7500000000000004E-4</v>
+      </c>
+      <c r="E20">
+        <v>2.8600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>8.0699999999999999E-4</v>
+      </c>
+      <c r="E21">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="E22">
+        <v>3.5100000000000002E-4</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>1.085E-3</v>
+      </c>
+      <c r="E23">
+        <v>3.8400000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>1.2160000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>4.1599999999999997E-4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>1.31E-3</v>
+      </c>
+      <c r="E25">
+        <v>4.4499999999999997E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>1.353E-3</v>
+      </c>
+      <c r="E26">
+        <v>4.6700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>1.358E-3</v>
+      </c>
+      <c r="E27">
+        <v>4.86E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>1.351E-3</v>
+      </c>
+      <c r="E28">
+        <v>5.0500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>26</v>
+      </c>
+      <c r="D29">
+        <v>1.3489999999999999E-3</v>
+      </c>
+      <c r="E29">
+        <v>5.2599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>1.353E-3</v>
+      </c>
+      <c r="E30">
+        <v>5.53E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>1.371E-3</v>
+      </c>
+      <c r="E31">
+        <v>5.8699999999999996E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>1.3990000000000001E-3</v>
+      </c>
+      <c r="E32">
+        <v>6.2699999999999995E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1.4319999999999999E-3</v>
+      </c>
+      <c r="E33">
+        <v>6.7299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>1.464E-3</v>
+      </c>
+      <c r="E34">
+        <v>7.2099999999999996E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>1.4959999999999999E-3</v>
+      </c>
+      <c r="E35">
+        <v>7.6599999999999997E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>1.5280000000000001E-3</v>
+      </c>
+      <c r="E36">
+        <v>8.0500000000000005E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>1.5629999999999999E-3</v>
+      </c>
+      <c r="E37">
+        <v>8.4199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>1.6130000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>8.8800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>36</v>
+      </c>
+      <c r="D39">
+        <v>1.6819999999999999E-3</v>
+      </c>
+      <c r="E39">
+        <v>9.4700000000000003E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>37</v>
+      </c>
+      <c r="D40">
+        <v>1.7639999999999999E-3</v>
+      </c>
+      <c r="E40">
+        <v>1.0169999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>38</v>
+      </c>
+      <c r="D41">
+        <v>1.8569999999999999E-3</v>
+      </c>
+      <c r="E41">
+        <v>1.0989999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>1.964E-3</v>
+      </c>
+      <c r="E42">
+        <v>1.1919999999999999E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>2.0830000000000002E-3</v>
+      </c>
+      <c r="E43">
+        <v>1.291E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>2.2269999999999998E-3</v>
+      </c>
+      <c r="E44">
+        <v>1.402E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>42</v>
+      </c>
+      <c r="D45">
+        <v>2.4139999999999999E-3</v>
+      </c>
+      <c r="E45">
+        <v>1.5349999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>43</v>
+      </c>
+      <c r="D46">
+        <v>2.653E-3</v>
+      </c>
+      <c r="E46">
+        <v>1.6949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>44</v>
+      </c>
+      <c r="D47">
+        <v>2.9390000000000002E-3</v>
+      </c>
+      <c r="E47">
+        <v>1.879E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>3.2429999999999998E-3</v>
+      </c>
+      <c r="E48">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>3.5630000000000002E-3</v>
+      </c>
+      <c r="E49">
+        <v>2.2680000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>3.9220000000000001E-3</v>
+      </c>
+      <c r="E50">
+        <v>2.4859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="E51">
+        <v>2.725E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>4.7489999999999997E-3</v>
+      </c>
+      <c r="E52">
+        <v>2.977E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>50</v>
+      </c>
+      <c r="D53">
+        <v>5.1929999999999997E-3</v>
+      </c>
+      <c r="E53">
+        <v>3.2450000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>5.6470000000000001E-3</v>
+      </c>
+      <c r="E54">
+        <v>3.5140000000000002E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>6.1219999999999998E-3</v>
+      </c>
+      <c r="E55">
+        <v>3.7759999999999998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>6.6299999999999996E-3</v>
+      </c>
+      <c r="E56">
+        <v>4.0289999999999996E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>7.1809999999999999E-3</v>
+      </c>
+      <c r="E57">
+        <v>4.2890000000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>7.7790000000000003E-3</v>
+      </c>
+      <c r="E58">
+        <v>4.5640000000000003E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>8.4150000000000006E-3</v>
+      </c>
+      <c r="E59">
+        <v>4.875E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>9.0740000000000005E-3</v>
+      </c>
+      <c r="E60">
+        <v>5.2339999999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>58</v>
+      </c>
+      <c r="D61">
+        <v>9.7269999999999995E-3</v>
+      </c>
+      <c r="E61">
+        <v>5.6470000000000001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>59</v>
+      </c>
+      <c r="D62">
+        <v>1.0371E-2</v>
+      </c>
+      <c r="E62">
+        <v>6.1029999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>1.1034E-2</v>
+      </c>
+      <c r="E63">
+        <v>6.5890000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>61</v>
+      </c>
+      <c r="D64">
+        <v>1.1738E-2</v>
+      </c>
+      <c r="E64">
+        <v>7.1040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>1.2489E-2</v>
+      </c>
+      <c r="E65">
+        <v>7.6649999999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>1.3335E-2</v>
+      </c>
+      <c r="E66">
+        <v>8.3029999999999996E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>1.4319E-2</v>
+      </c>
+      <c r="E67">
+        <v>9.0500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68">
+        <v>1.5481999999999999E-2</v>
+      </c>
+      <c r="E68">
+        <v>9.953E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>1.6823999999999999E-2</v>
+      </c>
+      <c r="E69">
+        <v>1.1001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>1.8329999999999999E-2</v>
+      </c>
+      <c r="E70">
+        <v>1.2123999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="E71">
+        <v>1.325E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>69</v>
+      </c>
+      <c r="D72">
+        <v>2.1538999999999999E-2</v>
+      </c>
+      <c r="E72">
+        <v>1.4419E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>2.3396E-2</v>
+      </c>
+      <c r="E73">
+        <v>1.5717999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>71</v>
+      </c>
+      <c r="D74">
+        <v>2.5475999999999999E-2</v>
+      </c>
+      <c r="E74">
+        <v>1.7201000000000001E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>2.7793999999999999E-2</v>
+      </c>
+      <c r="E75">
+        <v>1.8896E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>73</v>
+      </c>
+      <c r="D76">
+        <v>3.0349999999999999E-2</v>
+      </c>
+      <c r="E76">
+        <v>2.0818E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>74</v>
+      </c>
+      <c r="D77">
+        <v>3.3203999999999997E-2</v>
+      </c>
+      <c r="E77">
+        <v>2.2995999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>3.6345000000000002E-2</v>
+      </c>
+      <c r="E78">
+        <v>2.5387E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>76</v>
+      </c>
+      <c r="D79">
+        <v>3.9787999999999997E-2</v>
+      </c>
+      <c r="E79">
+        <v>2.809E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>4.3720000000000002E-2</v>
+      </c>
+      <c r="E80">
+        <v>3.1224999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>78</v>
+      </c>
+      <c r="D81">
+        <v>4.8335000000000003E-2</v>
+      </c>
+      <c r="E81">
+        <v>3.4785999999999997E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>79</v>
+      </c>
+      <c r="D82">
+        <v>5.3650000000000003E-2</v>
+      </c>
+      <c r="E82">
+        <v>3.8792E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>80</v>
+      </c>
+      <c r="D83">
+        <v>5.9565E-2</v>
+      </c>
+      <c r="E83">
+        <v>4.3109000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>81</v>
+      </c>
+      <c r="D84">
+        <v>6.5848000000000004E-2</v>
+      </c>
+      <c r="E84">
+        <v>4.7800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>82</v>
+      </c>
+      <c r="D85">
+        <v>7.2955999999999993E-2</v>
+      </c>
+      <c r="E85">
+        <v>5.3180999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>83</v>
+      </c>
+      <c r="D86">
+        <v>8.0740999999999993E-2</v>
+      </c>
+      <c r="E86">
+        <v>5.9365000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>84</v>
+      </c>
+      <c r="D87">
+        <v>8.9357000000000006E-2</v>
+      </c>
+      <c r="E87">
+        <v>6.6859000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>85</v>
+      </c>
+      <c r="D88">
+        <v>9.9650000000000002E-2</v>
+      </c>
+      <c r="E88">
+        <v>7.5391E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>86</v>
+      </c>
+      <c r="D89">
+        <v>0.110901</v>
+      </c>
+      <c r="E89">
+        <v>8.4744E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>87</v>
+      </c>
+      <c r="D90">
+        <v>0.12314600000000001</v>
+      </c>
+      <c r="E90">
+        <v>9.5072000000000004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>88</v>
+      </c>
+      <c r="D91">
+        <v>0.13641200000000001</v>
+      </c>
+      <c r="E91">
+        <v>0.10642699999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>89</v>
+      </c>
+      <c r="D92">
+        <v>0.15071000000000001</v>
+      </c>
+      <c r="E92">
+        <v>0.118857</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>90</v>
+      </c>
+      <c r="D93">
+        <v>0.16603799999999999</v>
+      </c>
+      <c r="E93">
+        <v>0.13239600000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>91</v>
+      </c>
+      <c r="D94">
+        <v>0.18237400000000001</v>
+      </c>
+      <c r="E94">
+        <v>0.147063</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>0.19967599999999999</v>
+      </c>
+      <c r="E95">
+        <v>0.162859</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>93</v>
+      </c>
+      <c r="D96">
+        <v>0.21787999999999999</v>
+      </c>
+      <c r="E96">
+        <v>0.17976500000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>94</v>
+      </c>
+      <c r="D97">
+        <v>0.236903</v>
+      </c>
+      <c r="E97">
+        <v>0.197737</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>95</v>
+      </c>
+      <c r="D98">
+        <v>0.25663599999999998</v>
+      </c>
+      <c r="E98">
+        <v>0.21670600000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>96</v>
+      </c>
+      <c r="D99">
+        <v>0.27695399999999998</v>
+      </c>
+      <c r="E99">
+        <v>0.23657700000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>97</v>
+      </c>
+      <c r="D100">
+        <v>0.29771300000000001</v>
+      </c>
+      <c r="E100">
+        <v>0.25722800000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>98</v>
+      </c>
+      <c r="D101">
+        <v>0.31875500000000001</v>
+      </c>
+      <c r="E101">
+        <v>0.27851500000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>99</v>
+      </c>
+      <c r="D102">
+        <v>0.33991399999999999</v>
+      </c>
+      <c r="E102">
+        <v>0.30027100000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77043072-7561-4A8D-A6F0-FE15417FB6ED}">
+  <dimension ref="A1:AI32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="8" max="9" width="17.625" customWidth="1"/>
+    <col min="10" max="19" width="23.375" customWidth="1"/>
+    <col min="20" max="29" width="22.375" customWidth="1"/>
+    <col min="30" max="30" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -812,34 +3703,46 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14">
-        <v>3.9E-2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="14">
-        <v>3.1600000000000003E-2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14">
-        <v>6.3E-2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M4" s="14">
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -848,29 +3751,43 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14">
-        <v>7.0999999999999994E-2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14">
-        <v>1.2E-2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -883,32 +3800,46 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="14">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14">
-        <v>0.151</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>51</v>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -917,20 +3848,32 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="15" t="s">
-        <v>52</v>
-      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -939,29 +3882,41 @@
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14">
-        <v>1.5800000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="M8" s="14">
-        <v>2.4400000000000002E-2</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -970,7 +3925,7 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14">
-        <v>3.5499999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -978,21 +3933,35 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="14">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N9" s="14" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>59</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1005,21 +3974,35 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1032,31 +4015,41 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="14">
-        <v>2.8E-3</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>9.1E-4</v>
-      </c>
+      <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -1064,18 +4057,34 @@
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1090,15 +4099,33 @@
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1113,1555 +4140,765 @@
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C2:H103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4">
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>4.4499999999999997E-4</v>
-      </c>
-      <c r="E4">
-        <v>3.8200000000000002E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3.01E-4</v>
-      </c>
-      <c r="E5">
-        <v>2.2499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="E6">
-        <v>1.75E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1.83E-4</v>
-      </c>
-      <c r="E7">
-        <v>1.5100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1.6899999999999999E-4</v>
-      </c>
-      <c r="E8">
-        <v>1.3200000000000001E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>1.4999999999999999E-4</v>
-      </c>
-      <c r="E9">
-        <v>1.17E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1.34E-4</v>
-      </c>
-      <c r="E10">
-        <v>1.06E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>1.15E-4</v>
-      </c>
-      <c r="E11">
-        <v>9.6000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>9.7E-5</v>
-      </c>
-      <c r="E12">
-        <v>8.7999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13">
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="14"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="14"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>8.5000000000000006E-5</v>
-      </c>
-      <c r="E13">
-        <v>8.3999999999999995E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>9.2E-5</v>
-      </c>
-      <c r="E14">
-        <v>8.7000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="E15">
-        <v>1.02E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>2.13E-4</v>
-      </c>
-      <c r="E16">
-        <v>1.2899999999999999E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>3.2299999999999999E-4</v>
-      </c>
-      <c r="E17">
-        <v>1.66E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>4.3899999999999999E-4</v>
-      </c>
-      <c r="E18">
-        <v>2.0699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>16</v>
-      </c>
-      <c r="D19">
-        <v>5.5199999999999997E-4</v>
-      </c>
-      <c r="E19">
-        <v>2.4699999999999999E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="E20">
-        <v>2.8600000000000001E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>8.0699999999999999E-4</v>
-      </c>
-      <c r="E21">
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>9.4200000000000002E-4</v>
-      </c>
-      <c r="E22">
-        <v>3.5100000000000002E-4</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>1.085E-3</v>
-      </c>
-      <c r="E23">
-        <v>3.8400000000000001E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>1.2160000000000001E-3</v>
-      </c>
-      <c r="E24">
-        <v>4.1599999999999997E-4</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>22</v>
-      </c>
-      <c r="D25">
-        <v>1.31E-3</v>
-      </c>
-      <c r="E25">
-        <v>4.4499999999999997E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>1.353E-3</v>
-      </c>
-      <c r="E26">
-        <v>4.6700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>1.358E-3</v>
-      </c>
-      <c r="E27">
-        <v>4.86E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>1.351E-3</v>
-      </c>
-      <c r="E28">
-        <v>5.0500000000000002E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>1.3489999999999999E-3</v>
-      </c>
-      <c r="E29">
-        <v>5.2599999999999999E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>27</v>
-      </c>
-      <c r="D30">
-        <v>1.353E-3</v>
-      </c>
-      <c r="E30">
-        <v>5.53E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <v>28</v>
-      </c>
-      <c r="D31">
-        <v>1.371E-3</v>
-      </c>
-      <c r="E31">
-        <v>5.8699999999999996E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>1.3990000000000001E-3</v>
-      </c>
-      <c r="E32">
-        <v>6.2699999999999995E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>1.4319999999999999E-3</v>
-      </c>
-      <c r="E33">
-        <v>6.7299999999999999E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>1.464E-3</v>
-      </c>
-      <c r="E34">
-        <v>7.2099999999999996E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>1.4959999999999999E-3</v>
-      </c>
-      <c r="E35">
-        <v>7.6599999999999997E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <v>1.5280000000000001E-3</v>
-      </c>
-      <c r="E36">
-        <v>8.0500000000000005E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>1.5629999999999999E-3</v>
-      </c>
-      <c r="E37">
-        <v>8.4199999999999998E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>1.6130000000000001E-3</v>
-      </c>
-      <c r="E38">
-        <v>8.8800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>36</v>
-      </c>
-      <c r="D39">
-        <v>1.6819999999999999E-3</v>
-      </c>
-      <c r="E39">
-        <v>9.4700000000000003E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>37</v>
-      </c>
-      <c r="D40">
-        <v>1.7639999999999999E-3</v>
-      </c>
-      <c r="E40">
-        <v>1.0169999999999999E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>38</v>
-      </c>
-      <c r="D41">
-        <v>1.8569999999999999E-3</v>
-      </c>
-      <c r="E41">
-        <v>1.0989999999999999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>39</v>
-      </c>
-      <c r="D42">
-        <v>1.964E-3</v>
-      </c>
-      <c r="E42">
-        <v>1.1919999999999999E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>2.0830000000000002E-3</v>
-      </c>
-      <c r="E43">
-        <v>1.291E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <v>41</v>
-      </c>
-      <c r="D44">
-        <v>2.2269999999999998E-3</v>
-      </c>
-      <c r="E44">
-        <v>1.402E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45">
-        <v>42</v>
-      </c>
-      <c r="D45">
-        <v>2.4139999999999999E-3</v>
-      </c>
-      <c r="E45">
-        <v>1.5349999999999999E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <v>43</v>
-      </c>
-      <c r="D46">
-        <v>2.653E-3</v>
-      </c>
-      <c r="E46">
-        <v>1.6949999999999999E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47">
-        <v>44</v>
-      </c>
-      <c r="D47">
-        <v>2.9390000000000002E-3</v>
-      </c>
-      <c r="E47">
-        <v>1.879E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48">
-        <v>45</v>
-      </c>
-      <c r="D48">
-        <v>3.2429999999999998E-3</v>
-      </c>
-      <c r="E48">
-        <v>2.0699999999999998E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49">
-        <v>46</v>
-      </c>
-      <c r="D49">
-        <v>3.5630000000000002E-3</v>
-      </c>
-      <c r="E49">
-        <v>2.2680000000000001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>3.9220000000000001E-3</v>
-      </c>
-      <c r="E50">
-        <v>2.4859999999999999E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <v>48</v>
-      </c>
-      <c r="D51">
-        <v>4.3200000000000001E-3</v>
-      </c>
-      <c r="E51">
-        <v>2.725E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52">
-        <v>49</v>
-      </c>
-      <c r="D52">
-        <v>4.7489999999999997E-3</v>
-      </c>
-      <c r="E52">
-        <v>2.977E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>5.1929999999999997E-3</v>
-      </c>
-      <c r="E53">
-        <v>3.2450000000000001E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>51</v>
-      </c>
-      <c r="D54">
-        <v>5.6470000000000001E-3</v>
-      </c>
-      <c r="E54">
-        <v>3.5140000000000002E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>52</v>
-      </c>
-      <c r="D55">
-        <v>6.1219999999999998E-3</v>
-      </c>
-      <c r="E55">
-        <v>3.7759999999999998E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>53</v>
-      </c>
-      <c r="D56">
-        <v>6.6299999999999996E-3</v>
-      </c>
-      <c r="E56">
-        <v>4.0289999999999996E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>54</v>
-      </c>
-      <c r="D57">
-        <v>7.1809999999999999E-3</v>
-      </c>
-      <c r="E57">
-        <v>4.2890000000000003E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <v>55</v>
-      </c>
-      <c r="D58">
-        <v>7.7790000000000003E-3</v>
-      </c>
-      <c r="E58">
-        <v>4.5640000000000003E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>56</v>
-      </c>
-      <c r="D59">
-        <v>8.4150000000000006E-3</v>
-      </c>
-      <c r="E59">
-        <v>4.875E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>57</v>
-      </c>
-      <c r="D60">
-        <v>9.0740000000000005E-3</v>
-      </c>
-      <c r="E60">
-        <v>5.2339999999999999E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61">
-        <v>58</v>
-      </c>
-      <c r="D61">
-        <v>9.7269999999999995E-3</v>
-      </c>
-      <c r="E61">
-        <v>5.6470000000000001E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62">
-        <v>59</v>
-      </c>
-      <c r="D62">
-        <v>1.0371E-2</v>
-      </c>
-      <c r="E62">
-        <v>6.1029999999999999E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63">
-        <v>60</v>
-      </c>
-      <c r="D63">
-        <v>1.1034E-2</v>
-      </c>
-      <c r="E63">
-        <v>6.5890000000000002E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64">
-        <v>61</v>
-      </c>
-      <c r="D64">
-        <v>1.1738E-2</v>
-      </c>
-      <c r="E64">
-        <v>7.1040000000000001E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65">
-        <v>62</v>
-      </c>
-      <c r="D65">
-        <v>1.2489E-2</v>
-      </c>
-      <c r="E65">
-        <v>7.6649999999999999E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66">
-        <v>63</v>
-      </c>
-      <c r="D66">
-        <v>1.3335E-2</v>
-      </c>
-      <c r="E66">
-        <v>8.3029999999999996E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <v>64</v>
-      </c>
-      <c r="D67">
-        <v>1.4319E-2</v>
-      </c>
-      <c r="E67">
-        <v>9.0500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68">
-        <v>65</v>
-      </c>
-      <c r="D68">
-        <v>1.5481999999999999E-2</v>
-      </c>
-      <c r="E68">
-        <v>9.953E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69">
-        <v>66</v>
-      </c>
-      <c r="D69">
-        <v>1.6823999999999999E-2</v>
-      </c>
-      <c r="E69">
-        <v>1.1001E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70">
-        <v>67</v>
-      </c>
-      <c r="D70">
-        <v>1.8329999999999999E-2</v>
-      </c>
-      <c r="E70">
-        <v>1.2123999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71">
-        <v>68</v>
-      </c>
-      <c r="D71">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="E71">
-        <v>1.325E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <v>69</v>
-      </c>
-      <c r="D72">
-        <v>2.1538999999999999E-2</v>
-      </c>
-      <c r="E72">
-        <v>1.4419E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73">
-        <v>70</v>
-      </c>
-      <c r="D73">
-        <v>2.3396E-2</v>
-      </c>
-      <c r="E73">
-        <v>1.5717999999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74">
-        <v>71</v>
-      </c>
-      <c r="D74">
-        <v>2.5475999999999999E-2</v>
-      </c>
-      <c r="E74">
-        <v>1.7201000000000001E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <v>72</v>
-      </c>
-      <c r="D75">
-        <v>2.7793999999999999E-2</v>
-      </c>
-      <c r="E75">
-        <v>1.8896E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76">
-        <v>73</v>
-      </c>
-      <c r="D76">
-        <v>3.0349999999999999E-2</v>
-      </c>
-      <c r="E76">
-        <v>2.0818E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>74</v>
-      </c>
-      <c r="D77">
-        <v>3.3203999999999997E-2</v>
-      </c>
-      <c r="E77">
-        <v>2.2995999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78">
-        <v>75</v>
-      </c>
-      <c r="D78">
-        <v>3.6345000000000002E-2</v>
-      </c>
-      <c r="E78">
-        <v>2.5387E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <v>76</v>
-      </c>
-      <c r="D79">
-        <v>3.9787999999999997E-2</v>
-      </c>
-      <c r="E79">
-        <v>2.809E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80">
-        <v>77</v>
-      </c>
-      <c r="D80">
-        <v>4.3720000000000002E-2</v>
-      </c>
-      <c r="E80">
-        <v>3.1224999999999999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <v>78</v>
-      </c>
-      <c r="D81">
-        <v>4.8335000000000003E-2</v>
-      </c>
-      <c r="E81">
-        <v>3.4785999999999997E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82">
-        <v>79</v>
-      </c>
-      <c r="D82">
-        <v>5.3650000000000003E-2</v>
-      </c>
-      <c r="E82">
-        <v>3.8792E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83">
-        <v>80</v>
-      </c>
-      <c r="D83">
-        <v>5.9565E-2</v>
-      </c>
-      <c r="E83">
-        <v>4.3109000000000001E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <v>81</v>
-      </c>
-      <c r="D84">
-        <v>6.5848000000000004E-2</v>
-      </c>
-      <c r="E84">
-        <v>4.7800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85">
-        <v>82</v>
-      </c>
-      <c r="D85">
-        <v>7.2955999999999993E-2</v>
-      </c>
-      <c r="E85">
-        <v>5.3180999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86">
-        <v>83</v>
-      </c>
-      <c r="D86">
-        <v>8.0740999999999993E-2</v>
-      </c>
-      <c r="E86">
-        <v>5.9365000000000001E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87">
-        <v>84</v>
-      </c>
-      <c r="D87">
-        <v>8.9357000000000006E-2</v>
-      </c>
-      <c r="E87">
-        <v>6.6859000000000002E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88">
-        <v>85</v>
-      </c>
-      <c r="D88">
-        <v>9.9650000000000002E-2</v>
-      </c>
-      <c r="E88">
-        <v>7.5391E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89">
-        <v>86</v>
-      </c>
-      <c r="D89">
-        <v>0.110901</v>
-      </c>
-      <c r="E89">
-        <v>8.4744E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90">
-        <v>87</v>
-      </c>
-      <c r="D90">
-        <v>0.12314600000000001</v>
-      </c>
-      <c r="E90">
-        <v>9.5072000000000004E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91">
-        <v>88</v>
-      </c>
-      <c r="D91">
-        <v>0.13641200000000001</v>
-      </c>
-      <c r="E91">
-        <v>0.10642699999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92">
-        <v>89</v>
-      </c>
-      <c r="D92">
-        <v>0.15071000000000001</v>
-      </c>
-      <c r="E92">
-        <v>0.118857</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93">
-        <v>90</v>
-      </c>
-      <c r="D93">
-        <v>0.16603799999999999</v>
-      </c>
-      <c r="E93">
-        <v>0.13239600000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <v>91</v>
-      </c>
-      <c r="D94">
-        <v>0.18237400000000001</v>
-      </c>
-      <c r="E94">
-        <v>0.147063</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95">
-        <v>92</v>
-      </c>
-      <c r="D95">
-        <v>0.19967599999999999</v>
-      </c>
-      <c r="E95">
-        <v>0.162859</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96">
-        <v>93</v>
-      </c>
-      <c r="D96">
-        <v>0.21787999999999999</v>
-      </c>
-      <c r="E96">
-        <v>0.17976500000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97">
-        <v>94</v>
-      </c>
-      <c r="D97">
-        <v>0.236903</v>
-      </c>
-      <c r="E97">
-        <v>0.197737</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98">
-        <v>95</v>
-      </c>
-      <c r="D98">
-        <v>0.25663599999999998</v>
-      </c>
-      <c r="E98">
-        <v>0.21670600000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99">
-        <v>96</v>
-      </c>
-      <c r="D99">
-        <v>0.27695399999999998</v>
-      </c>
-      <c r="E99">
-        <v>0.23657700000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100">
-        <v>97</v>
-      </c>
-      <c r="D100">
-        <v>0.29771300000000001</v>
-      </c>
-      <c r="E100">
-        <v>0.25722800000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101">
-        <v>98</v>
-      </c>
-      <c r="D101">
-        <v>0.31875500000000001</v>
-      </c>
-      <c r="E101">
-        <v>0.27851500000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102">
-        <v>99</v>
-      </c>
-      <c r="D102">
-        <v>0.33991399999999999</v>
-      </c>
-      <c r="E102">
-        <v>0.30027100000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103">
-        <v>100</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77043072-7561-4A8D-A6F0-FE15417FB6ED}">
-  <dimension ref="A1:Q14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.875" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="20.375" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="8" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="23.375" customWidth="1"/>
-    <col min="11" max="11" width="22.375" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14">
-        <v>1</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14">
-        <v>1</v>
-      </c>
-      <c r="G2" s="14">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14">
-        <v>1</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
-        <v>1</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14">
-        <v>1</v>
-      </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14">
-        <v>1</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14">
-        <v>1</v>
-      </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,10 +4920,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +6243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6877CA1F-4ED8-4563-99F4-4B4E57F936BB}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4019,16 +6256,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4592,165 +6829,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB409AF4-1FBC-4FA9-A301-850806A3C928}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="17"/>
-    <col min="2" max="2" width="33.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="17"/>
+    <col min="1" max="1" width="11" style="16"/>
+    <col min="2" max="2" width="33.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="11" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>61</v>
+      <c r="A1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="9">
         <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
         <v>0.32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="20"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="9"/>
     </row>
   </sheetData>
@@ -4760,27 +6989,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A7A28A-30E9-4E03-9752-DFD4938C93C5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>62</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="9">
         <v>0.16</v>
       </c>
     </row>
@@ -4789,7 +7018,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4797,7 +7026,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4805,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4813,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +7050,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4829,7 +7058,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="9">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +7066,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4845,7 +7074,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4853,14 +7082,6 @@
         <v>9</v>
       </c>
       <c r="B11" s="9">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
         <v>0.39</v>
       </c>
     </row>
@@ -4875,7 +7096,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5279,10 +7500,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
